--- a/data/trans_dic/P19C11_2023-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P19C11_2023-Dificultad-trans_dic.xlsx
@@ -506,7 +506,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población cuyo motivo por su última visita al dentista fue por implantes / solo 2023 (tasa de respuesta: 99,54%)</t>
+          <t>Población cuyo motivo por su última visita al dentista fue por implantes (tasa de respuesta: 99,54%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -874,7 +874,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población cuyo motivo por su última visita al dentista fue por implantes / solo 2023 (tasa de respuesta: 99,54%)</t>
+          <t>Población cuyo motivo por su última visita al dentista fue por implantes (tasa de respuesta: 99,54%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P19C11_2023-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P19C11_2023-Dificultad-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02008757260868013</v>
+        <v>0.02134933344001896</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.0238846991166194</v>
+        <v>0.02324986041929088</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.02403215772464586</v>
+        <v>0.02580176533987723</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.05615454106964601</v>
+        <v>0.0575200421480227</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.0483959049003892</v>
+        <v>0.0471425135159016</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.04509760531101844</v>
+        <v>0.0465106916486954</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01909308954250404</v>
+        <v>0.01917879341183082</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01871747082210609</v>
+        <v>0.01863929348794127</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02103121105462991</v>
+        <v>0.02113700903402253</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.04059784855001281</v>
+        <v>0.0402546960202354</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03482908862162112</v>
+        <v>0.03440107814053023</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03364830763426665</v>
+        <v>0.03364095037997999</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.03083144440015677</v>
+        <v>0.03067841726207819</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03664487560904359</v>
+        <v>0.03695147161674605</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.03640869374250881</v>
+        <v>0.03696349211424065</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.05619633881488824</v>
+        <v>0.05655810485267156</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.05754136302372353</v>
+        <v>0.05785092942986783</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.05225045897515639</v>
+        <v>0.05270405624919446</v>
       </c>
     </row>
     <row r="13">
@@ -735,7 +735,7 @@
         <v>0.06371171463278243</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.06796038320445137</v>
+        <v>0.06796038320445139</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.05660587595844002</v>
+        <v>0.05690767044868492</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.05214001493937752</v>
+        <v>0.05223325917265192</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.05873357184454291</v>
+        <v>0.05744842403045428</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.09058999676269494</v>
+        <v>0.09124474543987612</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.07764100355164176</v>
+        <v>0.0782074047993981</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.07916856756385572</v>
+        <v>0.07953174226131632</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.03904759495476</v>
+        <v>0.03916218672151678</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.03689698912088614</v>
+        <v>0.03738030759498334</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.04000287198026953</v>
+        <v>0.03941633446931433</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.05396853867859576</v>
+        <v>0.05343891577041141</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.04846785883624437</v>
+        <v>0.04814119985962229</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.04845767735595611</v>
+        <v>0.04846587335065865</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>9085</v>
+        <v>9656</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>14073</v>
+        <v>13699</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>25029</v>
+        <v>26872</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>25398</v>
+        <v>26015</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>28515</v>
+        <v>27776</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>46968</v>
+        <v>48440</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>17588</v>
+        <v>17667</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>20348</v>
+        <v>20263</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>42237</v>
+        <v>42449</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>37397</v>
+        <v>37081</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>37864</v>
+        <v>37398</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>67576</v>
+        <v>67561</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>31600</v>
+        <v>31443</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>37748</v>
+        <v>38064</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>74821</v>
+        <v>75961</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>57597</v>
+        <v>57967</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>59274</v>
+        <v>59592</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>107376</v>
+        <v>108308</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>53775</v>
+        <v>54062</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>45922</v>
+        <v>46004</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>107526</v>
+        <v>105173</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>86060</v>
+        <v>86682</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>68382</v>
+        <v>68881</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>144937</v>
+        <v>145602</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>130746</v>
+        <v>131129</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>132356</v>
+        <v>134090</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>277441</v>
+        <v>273374</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>180707</v>
+        <v>178933</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>173862</v>
+        <v>172691</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>336080</v>
+        <v>336137</v>
       </c>
     </row>
     <row r="24">
